--- a/logP.xlsx
+++ b/logP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalina/Desktop/Fizchemy - ostatecznie/logP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ACDBB-0E0E-6041-B0DE-92E321175594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB4521-35D3-D34C-8665-DC5D90C3B548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="-22340" windowWidth="27640" windowHeight="16860" xr2:uid="{00EDBCA5-E929-AC4D-8E79-A9B900A95754}"/>
   </bookViews>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -95,15 +98,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -161,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,10 +174,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -492,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3A431D-00EA-EC44-94F5-A05A4C3AE77D}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,10 +526,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>-5.5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -536,10 +543,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>16</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>-4.6580000000000004</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -553,10 +560,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>26</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>-5.63</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -570,10 +577,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>39</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>-6.0620000000000003</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -587,10 +594,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="10">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
         <v>-4.2069999999999999</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -604,10 +611,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="10">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
         <v>-4.2960000000000003</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -621,10 +628,10 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>88</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>-5.9690000000000003</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -638,10 +645,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>-2.907</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -655,10 +662,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="10">
         <v>16</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>-4.1669999999999998</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -672,10 +679,10 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="10">
         <v>476</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>-8.4710000000000001</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -689,10 +696,10 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="10">
         <v>894</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>-9.0559999999999992</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -706,10 +713,10 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="10">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>-5.1980000000000004</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -723,10 +730,10 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="10">
         <v>326</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>-7.8879999999999999</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -740,10 +747,10 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="10">
         <v>664</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>-8.6240000000000006</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -757,10 +764,10 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="10">
         <v>1170</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>-9.173</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -774,10 +781,10 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="10">
         <v>664</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>-8.8659999999999997</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -791,10 +798,10 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="10">
         <v>124</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>-6.8760000000000003</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -808,10 +815,10 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="10">
         <v>15</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>-4.9009999999999998</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -825,10 +832,10 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="10">
         <v>664</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>-8.8650000000000002</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -842,10 +849,10 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="10">
         <v>569</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>-8.56</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -859,10 +866,10 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>6</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="10">
+        <v>6</v>
+      </c>
+      <c r="C22" s="9">
         <v>-5.0830000000000002</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -876,10 +883,10 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="10">
         <v>86</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>-6.625</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -893,10 +900,10 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="10">
         <v>16</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="9">
         <v>-4.2359999999999998</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -910,10 +917,10 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="10">
         <v>32</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>-5.5780000000000003</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -927,10 +934,10 @@
       <c r="A26" s="3">
         <v>26</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="10">
         <v>1496</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>-9.5039999999999996</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -944,10 +951,10 @@
       <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="10">
         <v>2154</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>-9.81</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -961,10 +968,10 @@
       <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="10">
         <v>554</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>-8.4320000000000004</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -978,10 +985,10 @@
       <c r="A29" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="10">
         <v>157</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>-7.141</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -995,10 +1002,10 @@
       <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="10">
         <v>387</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="9">
         <v>-8.0440000000000005</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -1012,10 +1019,10 @@
       <c r="A31" s="3">
         <v>31</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="10">
         <v>240</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="9">
         <v>-7.3520000000000003</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -1029,10 +1036,10 @@
       <c r="A32" s="3">
         <v>32</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="10">
         <v>102</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>-5.9450000000000003</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -1046,10 +1053,10 @@
       <c r="A33" s="3">
         <v>33</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="10">
         <v>64</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>-6.3620000000000001</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -1063,10 +1070,10 @@
       <c r="A34" s="3">
         <v>34</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="10">
         <v>64</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="9">
         <v>-6.6020000000000003</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1080,10 +1087,10 @@
       <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="10">
         <v>326</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>-8.0830000000000002</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -1097,10 +1104,10 @@
       <c r="A36" s="3">
         <v>36</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="10">
         <v>664</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>-8.7629999999999999</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -1114,10 +1121,10 @@
       <c r="A37" s="3">
         <v>38</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="10">
         <v>66</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>-5.6239999999999997</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -1131,10 +1138,10 @@
       <c r="A38" s="3">
         <v>40</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="10">
         <v>116</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>-5.649</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -1148,10 +1155,10 @@
       <c r="A39" s="3">
         <v>41</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="10">
         <v>48</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>-5.8209999999999997</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -1165,10 +1172,10 @@
       <c r="A40" s="3">
         <v>42</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="10">
         <v>1170</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>-9.282</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -1182,10 +1189,10 @@
       <c r="A41" s="3">
         <v>43</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="10">
         <v>664</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>-8.8130000000000006</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -1199,10 +1206,10 @@
       <c r="A42" s="4">
         <v>44</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="10">
         <v>326</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>-8.2520000000000007</v>
       </c>
       <c r="D42" s="7" t="s">
@@ -1216,10 +1223,10 @@
       <c r="A43" s="4">
         <v>45</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="10">
         <v>664</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>-8.8930000000000007</v>
       </c>
       <c r="D43" s="7" t="s">
@@ -1233,10 +1240,10 @@
       <c r="A44" s="4">
         <v>46</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="10">
         <v>1170</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>-9.3780000000000001</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -1250,10 +1257,10 @@
       <c r="A45" s="4">
         <v>47</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="10">
         <v>476</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>-8.6010000000000009</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -1267,10 +1274,10 @@
       <c r="A46" s="4">
         <v>48</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="10">
         <v>124</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="9">
         <v>-7.165</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -1284,10 +1291,10 @@
       <c r="A47" s="4">
         <v>49</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="10">
         <v>1876</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="9">
         <v>-9.6820000000000004</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -1301,10 +1308,10 @@
       <c r="A48" s="4">
         <v>50</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="10">
         <v>124</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="9">
         <v>-7.3689999999999998</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -1318,10 +1325,10 @@
       <c r="A49" s="4">
         <v>51</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="10">
         <v>1170</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="9">
         <v>-9.2729999999999997</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -1335,10 +1342,10 @@
       <c r="A50" s="4">
         <v>52</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="10">
         <v>124</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="9">
         <v>-7.0670000000000002</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -1352,10 +1359,10 @@
       <c r="A51" s="4">
         <v>53</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="10">
         <v>3252</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="9">
         <v>-8.3629999999999995</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -1369,10 +1376,10 @@
       <c r="A52" s="4">
         <v>54</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="10">
         <v>326</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="9">
         <v>-8.0380000000000003</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -1386,10 +1393,10 @@
       <c r="A53" s="4">
         <v>55</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="10">
         <v>664</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="9">
         <v>-8.7449999999999992</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -1403,10 +1410,10 @@
       <c r="A54" s="4">
         <v>56</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="10">
         <v>330</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="9">
         <v>-7.3109999999999999</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -1420,10 +1427,10 @@
       <c r="A55" s="4">
         <v>57</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="10">
         <v>664</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="9">
         <v>-8.94</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -1437,10 +1444,10 @@
       <c r="A56" s="4">
         <v>58</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="10">
         <v>664</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="9">
         <v>-8.8369999999999997</v>
       </c>
       <c r="D56" s="7" t="s">
@@ -1454,10 +1461,10 @@
       <c r="A57" s="4">
         <v>59</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="10">
         <v>664</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9">
         <v>-8.9369999999999994</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -1471,10 +1478,10 @@
       <c r="A58" s="4">
         <v>60</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="10">
         <v>664</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9">
         <v>-8.9380000000000006</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -1488,10 +1495,10 @@
       <c r="A59" s="4">
         <v>61</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="10">
         <v>1876</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="9">
         <v>-9.7569999999999997</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -1505,10 +1512,10 @@
       <c r="A60" s="4">
         <v>62</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="10">
         <v>894</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="9">
         <v>-9.1519999999999992</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -1522,10 +1529,10 @@
       <c r="A61" s="4">
         <v>63</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="10">
         <v>210</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9">
         <v>-7.8639999999999999</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -1539,10 +1546,10 @@
       <c r="A62" s="4">
         <v>64</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="10">
         <v>2314</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="9">
         <v>-9.9160000000000004</v>
       </c>
       <c r="D62" s="7" t="s">
@@ -1556,10 +1563,10 @@
       <c r="A63" s="4">
         <v>65</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="10">
         <v>1496</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="9">
         <v>-9.5779999999999994</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -1573,10 +1580,10 @@
       <c r="A64" s="4">
         <v>66</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="10">
         <v>6360</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9">
         <v>-9.1110000000000007</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -1590,10 +1597,10 @@
       <c r="A65" s="4">
         <v>67</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="10">
         <v>664</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="9">
         <v>-8.8109999999999999</v>
       </c>
       <c r="D65" s="7" t="s">
@@ -1607,10 +1614,10 @@
       <c r="A66" s="4">
         <v>68</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="10">
         <v>1876</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="9">
         <v>-9.5969999999999995</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -1624,10 +1631,10 @@
       <c r="A67" s="4">
         <v>69</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="10">
         <v>2814</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="9">
         <v>-9.9320000000000004</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -1641,10 +1648,10 @@
       <c r="A68" s="4">
         <v>70</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="10">
         <v>26</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="9">
         <v>-5.5460000000000003</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -1658,10 +1665,10 @@
       <c r="A69" s="4">
         <v>72</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="10">
         <v>124</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="9">
         <v>-7.2290000000000001</v>
       </c>
       <c r="D69" s="7" t="s">
@@ -1675,10 +1682,10 @@
       <c r="A70" s="4">
         <v>74</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="10">
         <v>32</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="9">
         <v>-5.665</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -1692,10 +1699,10 @@
       <c r="A71" s="4">
         <v>75</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="10">
         <v>76</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="9">
         <v>-6.1559999999999997</v>
       </c>
       <c r="D71" s="7" t="s">
@@ -1709,10 +1716,10 @@
       <c r="A72" s="4">
         <v>76</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="10">
         <v>142</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="9">
         <v>-6.8879999999999999</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -1726,10 +1733,10 @@
       <c r="A73" s="4">
         <v>77</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="10">
         <v>244</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="9">
         <v>-7.266</v>
       </c>
       <c r="D73" s="7" t="s">
@@ -1743,10 +1750,10 @@
       <c r="A74" s="4">
         <v>78</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="10">
         <v>86</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="9">
         <v>-5.96</v>
       </c>
       <c r="D74" s="7" t="s">
@@ -1760,10 +1767,10 @@
       <c r="A75" s="4">
         <v>79</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="10">
         <v>176</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="9">
         <v>-6.1440000000000001</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -1777,10 +1784,10 @@
       <c r="A76" s="4">
         <v>80</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="10">
         <v>310</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="9">
         <v>-6.3819999999999997</v>
       </c>
       <c r="D76" s="7" t="s">
@@ -1794,10 +1801,10 @@
       <c r="A77" s="4">
         <v>81</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="10">
         <v>2314</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="9">
         <v>-9.8569999999999993</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -1811,10 +1818,10 @@
       <c r="A78" s="4">
         <v>82</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="10">
         <v>3380</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="9">
         <v>-10.14</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -1828,10 +1835,10 @@
       <c r="A79" s="4">
         <v>83</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="10">
         <v>4726</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="9">
         <v>-10.38</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -1845,10 +1852,10 @@
       <c r="A80" s="4">
         <v>84</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="10">
         <v>124</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="9">
         <v>-7.3879999999999999</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -1862,10 +1869,10 @@
       <c r="A81" s="4">
         <v>86</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="10">
         <v>272</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="9">
         <v>-7.8040000000000003</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -1879,10 +1886,10 @@
       <c r="A82" s="4">
         <v>87</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="10">
         <v>860</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="9">
         <v>-9.2469999999999999</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -1896,10 +1903,10 @@
       <c r="A83" s="4">
         <v>89</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="10">
         <v>664</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="9">
         <v>-8.6859999999999999</v>
       </c>
       <c r="D83" s="7" t="s">
